--- a/conception/dictionnaireDesDonnees.xlsx
+++ b/conception/dictionnaireDesDonnees.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v.masson\Documents\SGPC\conception\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v.masson\Documents\Projets de Stage\SGPC\conception\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -859,6 +859,27 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -875,27 +896,6 @@
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1218,7 +1218,7 @@
   <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:A43"/>
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1269,16 +1269,16 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -1404,16 +1404,16 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="35"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="33"/>
     </row>
     <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
@@ -1503,16 +1503,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="35"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="33"/>
     </row>
     <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
@@ -1555,16 +1555,16 @@
       <c r="H19" s="9"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="38"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -1607,16 +1607,16 @@
       <c r="H23" s="9"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="38"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="29"/>
     </row>
     <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
@@ -1890,16 +1890,16 @@
       <c r="H39" s="16"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="32"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="39"/>
     </row>
     <row r="41" spans="1:8" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
@@ -1967,16 +1967,16 @@
       <c r="H44" s="2"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="33" t="s">
+      <c r="A45" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="35"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="33"/>
     </row>
     <row r="46" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
@@ -2041,16 +2041,16 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="36" t="s">
+      <c r="A50" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="38"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="29"/>
     </row>
     <row r="51" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
@@ -2093,16 +2093,16 @@
       <c r="H52" s="9"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="36" t="s">
+      <c r="A54" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="B54" s="37"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="38"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="29"/>
     </row>
     <row r="55" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
@@ -2145,16 +2145,16 @@
       <c r="H56" s="9"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="36" t="s">
+      <c r="A58" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B58" s="37"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="38"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="29"/>
     </row>
     <row r="59" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
@@ -2301,16 +2301,16 @@
       <c r="H68" s="9"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="36" t="s">
+      <c r="A70" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="B70" s="37"/>
-      <c r="C70" s="37"/>
-      <c r="D70" s="37"/>
-      <c r="E70" s="37"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="37"/>
-      <c r="H70" s="38"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="29"/>
     </row>
     <row r="71" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
@@ -2362,16 +2362,16 @@
       <c r="H73" s="2"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="27" t="s">
+      <c r="A74" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="B74" s="28"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="29"/>
+      <c r="B74" s="35"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="36"/>
     </row>
     <row r="75" spans="1:8" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
